--- a/Perk_data/data/healing_perks.xlsx
+++ b/Perk_data/data/healing_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D3FEB5-1611-499F-8309-543FD2193C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA7940-EAEB-4A30-AF59-AECF0E6B21ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>repair_pulse</t>
+  </si>
+  <si>
+    <t>40 HIT_POINT</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -356,6 +359,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +877,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,8 +1188,8 @@
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>34</v>
@@ -1394,17 +1400,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>35</v>

--- a/Perk_data/data/healing_perks.xlsx
+++ b/Perk_data/data/healing_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA7940-EAEB-4A30-AF59-AECF0E6B21ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C4040-190B-4BFB-9F44-6E08A995759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,96 +45,30 @@
     <t>Perk</t>
   </si>
   <si>
-    <t>1st Bonus</t>
-  </si>
-  <si>
-    <t>2nd Bonus</t>
-  </si>
-  <si>
     <t>Rarity</t>
   </si>
   <si>
-    <t>12% RANGE</t>
-  </si>
-  <si>
-    <t>8% COOL_DOWN</t>
-  </si>
-  <si>
     <t>"Rapid"_Healing_Boost</t>
   </si>
   <si>
-    <t>7.5% HEALING</t>
-  </si>
-  <si>
     <t>"Cover"_Repair_Bolt_Speed</t>
   </si>
   <si>
-    <t>10% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>25% INVULNERABILITY</t>
-  </si>
-  <si>
-    <t>13% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>4% COOL_DOWN</t>
-  </si>
-  <si>
     <t>"Surge"_Repairing_Cooldown</t>
   </si>
   <si>
-    <t>10% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
     <t>"Reach"_Healing_Boost</t>
   </si>
   <si>
-    <t>6% COOL_DOWN</t>
-  </si>
-  <si>
     <t>"Vigor"_Repairing_Boost</t>
   </si>
   <si>
-    <t>160 HIT_POINT</t>
-  </si>
-  <si>
     <t>"Vigor"_Area_Heal_Cooldown</t>
   </si>
   <si>
     <t>"Speedy"_Repairing_Cooldown</t>
   </si>
   <si>
-    <t>10% RANGE</t>
-  </si>
-  <si>
-    <t>2.5% HEALING</t>
-  </si>
-  <si>
-    <t>5% HEALING</t>
-  </si>
-  <si>
-    <t>3% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>10% INVULNERABILITY</t>
-  </si>
-  <si>
-    <t>2% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>5% RANGE</t>
-  </si>
-  <si>
-    <t>8% RANGE</t>
-  </si>
-  <si>
-    <t>5% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>2.5% COOL_DOWN</t>
-  </si>
-  <si>
     <t>legendary</t>
   </si>
   <si>
@@ -165,7 +99,73 @@
     <t>repair_pulse</t>
   </si>
   <si>
-    <t>40 HIT_POINT</t>
+    <t>1st-Bonus</t>
+  </si>
+  <si>
+    <t>2nd-Bonus</t>
+  </si>
+  <si>
+    <t>7.5%-HEALING</t>
+  </si>
+  <si>
+    <t>8%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>10%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>10%-INVULNERABILITY</t>
+  </si>
+  <si>
+    <t>4%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>10%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>12%-RANGE</t>
+  </si>
+  <si>
+    <t>160-HIT_POINT</t>
+  </si>
+  <si>
+    <t>6%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>13%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>25%-INVULNERABILITY</t>
+  </si>
+  <si>
+    <t>10%-RANGE</t>
+  </si>
+  <si>
+    <t>5%-HEALING</t>
+  </si>
+  <si>
+    <t>3%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>5%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>8%-RANGE</t>
+  </si>
+  <si>
+    <t>2.5%-HEALING</t>
+  </si>
+  <si>
+    <t>2%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>2.5%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>5%-RANGE</t>
+  </si>
+  <si>
+    <t>40-HIT_POINT</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,557 +897,557 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Perk_data/data/healing_perks.xlsx
+++ b/Perk_data/data/healing_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C4040-190B-4BFB-9F44-6E08A995759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541D35E-B35A-40C6-9AD5-2BB486ABE57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>2nd-Bonus</t>
   </si>
   <si>
-    <t>7.5%-HEALING</t>
-  </si>
-  <si>
     <t>8%-COOL_DOWN</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>10%-RANGE</t>
   </si>
   <si>
-    <t>5%-HEALING</t>
-  </si>
-  <si>
     <t>3%-COOL_DOWN</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>8%-RANGE</t>
   </si>
   <si>
-    <t>2.5%-HEALING</t>
-  </si>
-  <si>
     <t>2%-COOL_DOWN</t>
   </si>
   <si>
@@ -166,6 +157,15 @@
   </si>
   <si>
     <t>40-HIT_POINT</t>
+  </si>
+  <si>
+    <t>7.5%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>5%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>2.5%-BASE_STAT</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -931,10 +931,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -948,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -965,10 +965,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -982,10 +982,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -999,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -1016,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -1033,10 +1033,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -1050,10 +1050,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>11</v>
@@ -1067,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -1084,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
@@ -1101,10 +1101,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>11</v>
@@ -1118,10 +1118,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>11</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
@@ -1152,10 +1152,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
@@ -1169,10 +1169,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
@@ -1186,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
@@ -1203,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>12</v>
@@ -1220,10 +1220,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>12</v>
@@ -1237,10 +1237,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -1254,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>12</v>
@@ -1271,10 +1271,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>12</v>
@@ -1288,10 +1288,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>12</v>
@@ -1305,10 +1305,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>12</v>
@@ -1322,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
@@ -1339,10 +1339,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>13</v>
@@ -1356,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
@@ -1373,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
@@ -1390,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>13</v>
@@ -1407,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>13</v>
@@ -1424,10 +1424,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>13</v>
@@ -1441,10 +1441,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>13</v>
